--- a/DungeonsGame/Assets/art/Resources/database/Monster.xlsx
+++ b/DungeonsGame/Assets/art/Resources/database/Monster.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Administrator - 个人视图" guid="{9B477154-6ECB-49F2-BE29-0AD8E70ED32F}" mergeInterval="0" personalView="1" maximized="1" xWindow="1911" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" guid="{FF97F462-7D73-4EE4-A909-0C06BC91BBEE}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,120 +66,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Room</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Position</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Interactive</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dir</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Asset</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int,int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int,int,vector3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>trigger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>boosa</t>
-  </si>
-  <si>
-    <t>bossb</t>
-  </si>
-  <si>
-    <t>bossc</t>
-  </si>
-  <si>
-    <t>bossd</t>
-  </si>
-  <si>
-    <t>chanchua</t>
-  </si>
-  <si>
-    <t>chanchub</t>
-  </si>
-  <si>
-    <t>finalBoss</t>
-  </si>
-  <si>
-    <t>kuloudao</t>
-  </si>
-  <si>
-    <t>kulougong</t>
-  </si>
-  <si>
-    <t>limaoa</t>
-  </si>
-  <si>
-    <t>limaob</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>niaoa</t>
-  </si>
-  <si>
-    <t>niaob</t>
-  </si>
-  <si>
-    <t>wushi</t>
-  </si>
-  <si>
-    <t>yeren</t>
-  </si>
-  <si>
-    <t>youlina</t>
-  </si>
-  <si>
-    <t>youlinb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -189,19 +111,11 @@
       </rPr>
       <t>,0</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0|0|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -215,19 +129,11 @@
       </rPr>
       <t>,0</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0|0|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>0|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -254,12 +160,8 @@
     </r>
   </si>
   <si>
-    <t>0,0,0|0|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -286,87 +188,185 @@
     </r>
   </si>
   <si>
-    <t>0,0,0|0|0</t>
-  </si>
-  <si>
     <t>0|0</t>
   </si>
   <si>
-    <t>monster/boosa</t>
-  </si>
-  <si>
-    <t>monster/bossb</t>
-  </si>
-  <si>
-    <t>monster/bossc</t>
-  </si>
-  <si>
-    <t>monster/bossd</t>
-  </si>
-  <si>
-    <t>monster/chanchua</t>
-  </si>
-  <si>
-    <t>monster/chanchub</t>
-  </si>
-  <si>
-    <t>monster/finalBoss</t>
-  </si>
-  <si>
-    <t>monster/kuloudao</t>
-  </si>
-  <si>
-    <t>monster/kulougong</t>
-  </si>
-  <si>
-    <t>monster/limaoa</t>
-  </si>
-  <si>
-    <t>monster/limaob</t>
-  </si>
-  <si>
-    <t>monster/long</t>
-  </si>
-  <si>
-    <t>monster/niaoa</t>
-  </si>
-  <si>
-    <t>monster/niaob</t>
-  </si>
-  <si>
-    <t>monster/wushi</t>
-  </si>
-  <si>
-    <t>monster/yeren</t>
-  </si>
-  <si>
-    <t>monster/youlina</t>
-  </si>
-  <si>
-    <t>monster/youlinb</t>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>nt</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>inPools</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_bossb</t>
+  </si>
+  <si>
+    <t>M_bossc</t>
+  </si>
+  <si>
+    <t>M_bossd</t>
+  </si>
+  <si>
+    <t>M_chanchua</t>
+  </si>
+  <si>
+    <t>M_chanchub</t>
+  </si>
+  <si>
+    <t>M_finalBoss</t>
+  </si>
+  <si>
+    <t>M_kuloudao</t>
+  </si>
+  <si>
+    <t>M_kulougong</t>
+  </si>
+  <si>
+    <t>M_lanlong</t>
+  </si>
+  <si>
+    <t>M_limaoa</t>
+  </si>
+  <si>
+    <t>M_limaob</t>
+  </si>
+  <si>
+    <t>M_niaoa</t>
+  </si>
+  <si>
+    <t>M_niaob</t>
+  </si>
+  <si>
+    <t>M_wushi</t>
+  </si>
+  <si>
+    <t>M_yeren</t>
+  </si>
+  <si>
+    <t>M_youlina</t>
+  </si>
+  <si>
+    <t>M_youlinb</t>
+  </si>
+  <si>
+    <t>Objects</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster/M_bossb</t>
+  </si>
+  <si>
+    <t>Monster/M_bossc</t>
+  </si>
+  <si>
+    <t>Monster/M_bossd</t>
+  </si>
+  <si>
+    <t>Monster/M_chanchua</t>
+  </si>
+  <si>
+    <t>Monster/M_chanchub</t>
+  </si>
+  <si>
+    <t>Monster/M_finalBoss</t>
+  </si>
+  <si>
+    <t>Monster/M_kuloudao</t>
+  </si>
+  <si>
+    <t>Monster/M_kulougong</t>
+  </si>
+  <si>
+    <t>Monster/M_lanlong</t>
+  </si>
+  <si>
+    <t>Monster/M_limaoa</t>
+  </si>
+  <si>
+    <t>Monster/M_limaob</t>
+  </si>
+  <si>
+    <t>Monster/M_niaoa</t>
+  </si>
+  <si>
+    <t>Monster/M_niaob</t>
+  </si>
+  <si>
+    <t>Monster/M_wushi</t>
+  </si>
+  <si>
+    <t>Monster/M_yeren</t>
+  </si>
+  <si>
+    <t>Monster/M_youlina</t>
+  </si>
+  <si>
+    <t>Monster/M_youlinb</t>
+  </si>
+  <si>
+    <t>Monster/M_bossa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int,vector3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-10|-10|0</t>
+  </si>
+  <si>
+    <t>0,-10|-10|0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_bossa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,24 +431,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -459,6 +477,1433 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2213B8A2-DBBB-4F81-9A69-8C704B50A5F9}" diskRevisions="1" revisionId="171" version="7">
+  <header guid="{E7C3F530-9556-45A8-BADF-31000745D4EA}" dateTime="2016-11-28T17:13:04" maxSheetId="2" userName="Administrator" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AF6E507E-4A72-4EDC-85E2-22215E11F28B}" dateTime="2016-11-28T17:13:49" maxSheetId="2" userName="Administrator" r:id="rId2" minRId="1" maxRId="2">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{78C61086-F4FD-4D1B-B495-72EB795BED78}" dateTime="2016-11-28T17:38:07" maxSheetId="3" userName="Administrator" r:id="rId3" minRId="3" maxRId="75">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{066D1952-F2B7-46EC-8C45-6631E1C28B61}" dateTime="2016-11-28T17:49:37" maxSheetId="3" userName="Administrator" r:id="rId4" minRId="76" maxRId="150">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{712C6B56-D820-4A7C-9ECE-2D8264DD4F62}" dateTime="2016-11-28T17:51:55" maxSheetId="3" userName="Administrator" r:id="rId5" minRId="151">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EF5BA36D-6741-40C8-BF17-B81DE2624591}" dateTime="2016-11-29T16:28:44" maxSheetId="3" userName="Administrator" r:id="rId6" minRId="152" maxRId="170">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2213B8A2-DBBB-4F81-9A69-8C704B50A5F9}" dateTime="2016-11-29T20:47:37" maxSheetId="3" userName="Administrator" r:id="rId7" minRId="171">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="H4" t="inlineStr">
+      <is>
+        <t>monster/M_boosa</t>
+      </is>
+    </oc>
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>Items/I_door_close</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="2" sId="1">
+    <oc r="H5" t="inlineStr">
+      <is>
+        <t>monster/M_bossb</t>
+      </is>
+    </oc>
+    <nc r="H5" t="inlineStr">
+      <is>
+        <t>monster/M_bossb</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="3" sheetId="2" name="[monster.xlsx]Sheet1" sheetPosition="1"/>
+  <rcc rId="4" sId="2">
+    <nc r="J1" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="2">
+    <nc r="I1" t="inlineStr">
+      <is>
+        <t>M_boosa</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="2">
+    <nc r="I2" t="inlineStr">
+      <is>
+        <t>M_bossb</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="2">
+    <nc r="I3" t="inlineStr">
+      <is>
+        <t>M_bossc</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="2">
+    <nc r="I4" t="inlineStr">
+      <is>
+        <t>M_bossd</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="2">
+    <nc r="I5" t="inlineStr">
+      <is>
+        <t>M_chanchua</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="2">
+    <nc r="I6" t="inlineStr">
+      <is>
+        <t>M_chanchub</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="2">
+    <nc r="I7" t="inlineStr">
+      <is>
+        <t>M_finalBoss</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="2">
+    <nc r="I8" t="inlineStr">
+      <is>
+        <t>M_kuloudao</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="2">
+    <nc r="I9" t="inlineStr">
+      <is>
+        <t>M_kulougong</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="14" sId="2">
+    <nc r="I10" t="inlineStr">
+      <is>
+        <t>M_lanlong</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="15" sId="2">
+    <nc r="I11" t="inlineStr">
+      <is>
+        <t>M_limaoa</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="16" sId="2">
+    <nc r="I12" t="inlineStr">
+      <is>
+        <t>M_limaob</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="17" sId="2">
+    <nc r="I13" t="inlineStr">
+      <is>
+        <t>M_niaoa</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="18" sId="2">
+    <nc r="I14" t="inlineStr">
+      <is>
+        <t>M_niaob</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="2">
+    <nc r="I15" t="inlineStr">
+      <is>
+        <t>M_wushi</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="20" sId="2">
+    <nc r="I16" t="inlineStr">
+      <is>
+        <t>M_yeren</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="21" sId="2">
+    <nc r="I17" t="inlineStr">
+      <is>
+        <t>M_youlina</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="22" sId="2">
+    <nc r="I18" t="inlineStr">
+      <is>
+        <t>M_youlinb</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="2">
+    <nc r="J2" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="2">
+    <nc r="J3" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="2">
+    <nc r="J4" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="26" sId="2">
+    <nc r="J5" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="27" sId="2">
+    <nc r="J6" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="28" sId="2">
+    <nc r="J7" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="29" sId="2">
+    <nc r="J8" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="30" sId="2">
+    <nc r="J9" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="31" sId="2">
+    <nc r="J10" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="32" sId="2">
+    <nc r="J11" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="33" sId="2">
+    <nc r="J12" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="34" sId="2">
+    <nc r="J13" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="35" sId="2">
+    <nc r="J14" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="36" sId="2">
+    <nc r="J15" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="37" sId="2">
+    <nc r="J16" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="38" sId="2">
+    <nc r="J17" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="39" sId="2">
+    <nc r="J18" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="40" sId="2">
+    <nc r="K1">
+      <f>J1&amp;I1</f>
+    </nc>
+  </rcc>
+  <rcc rId="41" sId="2">
+    <nc r="K2">
+      <f>J2&amp;I2</f>
+    </nc>
+  </rcc>
+  <rcc rId="42" sId="2">
+    <nc r="K3">
+      <f>J3&amp;I3</f>
+    </nc>
+  </rcc>
+  <rcc rId="43" sId="2">
+    <nc r="K4">
+      <f>J4&amp;I4</f>
+    </nc>
+  </rcc>
+  <rcc rId="44" sId="2">
+    <nc r="K5">
+      <f>J5&amp;I5</f>
+    </nc>
+  </rcc>
+  <rcc rId="45" sId="2">
+    <nc r="K6">
+      <f>J6&amp;I6</f>
+    </nc>
+  </rcc>
+  <rcc rId="46" sId="2">
+    <nc r="K7">
+      <f>J7&amp;I7</f>
+    </nc>
+  </rcc>
+  <rcc rId="47" sId="2">
+    <nc r="K8">
+      <f>J8&amp;I8</f>
+    </nc>
+  </rcc>
+  <rcc rId="48" sId="2">
+    <nc r="K9">
+      <f>J9&amp;I9</f>
+    </nc>
+  </rcc>
+  <rcc rId="49" sId="2">
+    <nc r="K10">
+      <f>J10&amp;I10</f>
+    </nc>
+  </rcc>
+  <rcc rId="50" sId="2">
+    <nc r="K11">
+      <f>J11&amp;I11</f>
+    </nc>
+  </rcc>
+  <rcc rId="51" sId="2">
+    <nc r="K12">
+      <f>J12&amp;I12</f>
+    </nc>
+  </rcc>
+  <rcc rId="52" sId="2">
+    <nc r="K13">
+      <f>J13&amp;I13</f>
+    </nc>
+  </rcc>
+  <rcc rId="53" sId="2">
+    <nc r="K14">
+      <f>J14&amp;I14</f>
+    </nc>
+  </rcc>
+  <rcc rId="54" sId="2">
+    <nc r="K15">
+      <f>J15&amp;I15</f>
+    </nc>
+  </rcc>
+  <rcc rId="55" sId="2">
+    <nc r="K16">
+      <f>J16&amp;I16</f>
+    </nc>
+  </rcc>
+  <rcc rId="56" sId="2">
+    <nc r="K17">
+      <f>J17&amp;I17</f>
+    </nc>
+  </rcc>
+  <rcc rId="57" sId="2">
+    <nc r="K18">
+      <f>J18&amp;I18</f>
+    </nc>
+  </rcc>
+  <rcc rId="58" sId="1">
+    <oc r="H4" t="inlineStr">
+      <is>
+        <t>Items/I_door_close</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>Monster/M_boosa</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="59" sId="1">
+    <oc r="H5" t="inlineStr">
+      <is>
+        <t>monster/M_bossb</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="H5" t="inlineStr">
+      <is>
+        <t>Monster/M_bossb</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="60" sId="1">
+    <oc r="H6" t="inlineStr">
+      <is>
+        <t>monster/M_bossc</t>
+      </is>
+    </oc>
+    <nc r="H6" t="inlineStr">
+      <is>
+        <t>Monster/M_bossc</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="61" sId="1">
+    <oc r="H7" t="inlineStr">
+      <is>
+        <t>monster/M_bossd</t>
+      </is>
+    </oc>
+    <nc r="H7" t="inlineStr">
+      <is>
+        <t>Monster/M_bossd</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="62" sId="1">
+    <oc r="H8" t="inlineStr">
+      <is>
+        <t>monster/M_chanchua</t>
+      </is>
+    </oc>
+    <nc r="H8" t="inlineStr">
+      <is>
+        <t>Monster/M_chanchua</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="63" sId="1">
+    <oc r="H9" t="inlineStr">
+      <is>
+        <t>monster/M_chanchub</t>
+      </is>
+    </oc>
+    <nc r="H9" t="inlineStr">
+      <is>
+        <t>Monster/M_chanchub</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="64" sId="1">
+    <oc r="H10" t="inlineStr">
+      <is>
+        <t>monster/M_finalBoss</t>
+      </is>
+    </oc>
+    <nc r="H10" t="inlineStr">
+      <is>
+        <t>Monster/M_finalBoss</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="65" sId="1">
+    <oc r="H11" t="inlineStr">
+      <is>
+        <t>monster/M_kuloudao</t>
+      </is>
+    </oc>
+    <nc r="H11" t="inlineStr">
+      <is>
+        <t>Monster/M_kuloudao</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="66" sId="1">
+    <oc r="H12" t="inlineStr">
+      <is>
+        <t>monster/M_kulougong</t>
+      </is>
+    </oc>
+    <nc r="H12" t="inlineStr">
+      <is>
+        <t>Monster/M_kulougong</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="67" sId="1">
+    <oc r="H13" t="inlineStr">
+      <is>
+        <t>monster/M_lanlong</t>
+      </is>
+    </oc>
+    <nc r="H13" t="inlineStr">
+      <is>
+        <t>Monster/M_lanlong</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="68" sId="1">
+    <oc r="H14" t="inlineStr">
+      <is>
+        <t>monster/M_limaoa</t>
+      </is>
+    </oc>
+    <nc r="H14" t="inlineStr">
+      <is>
+        <t>Monster/M_limaoa</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="69" sId="1">
+    <oc r="H15" t="inlineStr">
+      <is>
+        <t>monster/M_limaob</t>
+      </is>
+    </oc>
+    <nc r="H15" t="inlineStr">
+      <is>
+        <t>Monster/M_limaob</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="70" sId="1">
+    <oc r="H16" t="inlineStr">
+      <is>
+        <t>monster/M_niaoa</t>
+      </is>
+    </oc>
+    <nc r="H16" t="inlineStr">
+      <is>
+        <t>Monster/M_niaoa</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="71" sId="1">
+    <oc r="H17" t="inlineStr">
+      <is>
+        <t>monster/M_niaob</t>
+      </is>
+    </oc>
+    <nc r="H17" t="inlineStr">
+      <is>
+        <t>Monster/M_niaob</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="72" sId="1">
+    <oc r="H18" t="inlineStr">
+      <is>
+        <t>monster/M_wushi</t>
+      </is>
+    </oc>
+    <nc r="H18" t="inlineStr">
+      <is>
+        <t>Monster/M_wushi</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="73" sId="1">
+    <oc r="H19" t="inlineStr">
+      <is>
+        <t>monster/M_yeren</t>
+      </is>
+    </oc>
+    <nc r="H19" t="inlineStr">
+      <is>
+        <t>Monster/M_yeren</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="74" sId="1">
+    <oc r="H20" t="inlineStr">
+      <is>
+        <t>monster/M_youlina</t>
+      </is>
+    </oc>
+    <nc r="H20" t="inlineStr">
+      <is>
+        <t>Monster/M_youlina</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="75" sId="1">
+    <oc r="H21" t="inlineStr">
+      <is>
+        <t>monster/M_youlinb</t>
+      </is>
+    </oc>
+    <nc r="H21" t="inlineStr">
+      <is>
+        <t>Monster/M_youlinb</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{9B477154-6ECB-49F2-BE29-0AD8E70ED32F}" action="delete"/>
+  <rcv guid="{9B477154-6ECB-49F2-BE29-0AD8E70ED32F}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="76" sId="2">
+    <oc r="I1" t="inlineStr">
+      <is>
+        <t>M_boosa</t>
+      </is>
+    </oc>
+    <nc r="I1"/>
+  </rcc>
+  <rcc rId="77" sId="2">
+    <oc r="J1" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J1"/>
+  </rcc>
+  <rcc rId="78" sId="2">
+    <oc r="K1">
+      <f>J1&amp;I1</f>
+    </oc>
+    <nc r="K1"/>
+  </rcc>
+  <rcc rId="79" sId="2">
+    <oc r="I2" t="inlineStr">
+      <is>
+        <t>M_bossb</t>
+      </is>
+    </oc>
+    <nc r="I2"/>
+  </rcc>
+  <rcc rId="80" sId="2">
+    <oc r="J2" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J2"/>
+  </rcc>
+  <rcc rId="81" sId="2">
+    <oc r="K2">
+      <f>J2&amp;I2</f>
+    </oc>
+    <nc r="K2"/>
+  </rcc>
+  <rcc rId="82" sId="2">
+    <oc r="I3" t="inlineStr">
+      <is>
+        <t>M_bossc</t>
+      </is>
+    </oc>
+    <nc r="I3"/>
+  </rcc>
+  <rcc rId="83" sId="2">
+    <oc r="J3" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J3"/>
+  </rcc>
+  <rcc rId="84" sId="2">
+    <oc r="K3">
+      <f>J3&amp;I3</f>
+    </oc>
+    <nc r="K3"/>
+  </rcc>
+  <rcc rId="85" sId="2">
+    <oc r="I4" t="inlineStr">
+      <is>
+        <t>M_bossd</t>
+      </is>
+    </oc>
+    <nc r="I4"/>
+  </rcc>
+  <rcc rId="86" sId="2">
+    <oc r="J4" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J4"/>
+  </rcc>
+  <rcc rId="87" sId="2">
+    <oc r="K4">
+      <f>J4&amp;I4</f>
+    </oc>
+    <nc r="K4"/>
+  </rcc>
+  <rcc rId="88" sId="2">
+    <oc r="I5" t="inlineStr">
+      <is>
+        <t>M_chanchua</t>
+      </is>
+    </oc>
+    <nc r="I5"/>
+  </rcc>
+  <rcc rId="89" sId="2">
+    <oc r="J5" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J5"/>
+  </rcc>
+  <rcc rId="90" sId="2">
+    <oc r="K5">
+      <f>J5&amp;I5</f>
+    </oc>
+    <nc r="K5"/>
+  </rcc>
+  <rcc rId="91" sId="2">
+    <oc r="I6" t="inlineStr">
+      <is>
+        <t>M_chanchub</t>
+      </is>
+    </oc>
+    <nc r="I6"/>
+  </rcc>
+  <rcc rId="92" sId="2">
+    <oc r="J6" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J6"/>
+  </rcc>
+  <rcc rId="93" sId="2">
+    <oc r="K6">
+      <f>J6&amp;I6</f>
+    </oc>
+    <nc r="K6"/>
+  </rcc>
+  <rcc rId="94" sId="2">
+    <oc r="I7" t="inlineStr">
+      <is>
+        <t>M_finalBoss</t>
+      </is>
+    </oc>
+    <nc r="I7"/>
+  </rcc>
+  <rcc rId="95" sId="2">
+    <oc r="J7" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J7"/>
+  </rcc>
+  <rcc rId="96" sId="2">
+    <oc r="K7">
+      <f>J7&amp;I7</f>
+    </oc>
+    <nc r="K7"/>
+  </rcc>
+  <rcc rId="97" sId="2">
+    <oc r="I8" t="inlineStr">
+      <is>
+        <t>M_kuloudao</t>
+      </is>
+    </oc>
+    <nc r="I8"/>
+  </rcc>
+  <rcc rId="98" sId="2">
+    <oc r="J8" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J8"/>
+  </rcc>
+  <rcc rId="99" sId="2">
+    <oc r="K8">
+      <f>J8&amp;I8</f>
+    </oc>
+    <nc r="K8"/>
+  </rcc>
+  <rcc rId="100" sId="2">
+    <oc r="I9" t="inlineStr">
+      <is>
+        <t>M_kulougong</t>
+      </is>
+    </oc>
+    <nc r="I9"/>
+  </rcc>
+  <rcc rId="101" sId="2">
+    <oc r="J9" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J9"/>
+  </rcc>
+  <rcc rId="102" sId="2">
+    <oc r="K9">
+      <f>J9&amp;I9</f>
+    </oc>
+    <nc r="K9"/>
+  </rcc>
+  <rcc rId="103" sId="2">
+    <oc r="I10" t="inlineStr">
+      <is>
+        <t>M_lanlong</t>
+      </is>
+    </oc>
+    <nc r="I10"/>
+  </rcc>
+  <rcc rId="104" sId="2">
+    <oc r="J10" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J10"/>
+  </rcc>
+  <rcc rId="105" sId="2">
+    <oc r="K10">
+      <f>J10&amp;I10</f>
+    </oc>
+    <nc r="K10"/>
+  </rcc>
+  <rcc rId="106" sId="2">
+    <oc r="I11" t="inlineStr">
+      <is>
+        <t>M_limaoa</t>
+      </is>
+    </oc>
+    <nc r="I11"/>
+  </rcc>
+  <rcc rId="107" sId="2">
+    <oc r="J11" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J11"/>
+  </rcc>
+  <rcc rId="108" sId="2">
+    <oc r="K11">
+      <f>J11&amp;I11</f>
+    </oc>
+    <nc r="K11"/>
+  </rcc>
+  <rcc rId="109" sId="2">
+    <oc r="I12" t="inlineStr">
+      <is>
+        <t>M_limaob</t>
+      </is>
+    </oc>
+    <nc r="I12"/>
+  </rcc>
+  <rcc rId="110" sId="2">
+    <oc r="J12" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J12"/>
+  </rcc>
+  <rcc rId="111" sId="2">
+    <oc r="K12">
+      <f>J12&amp;I12</f>
+    </oc>
+    <nc r="K12"/>
+  </rcc>
+  <rcc rId="112" sId="2">
+    <oc r="I13" t="inlineStr">
+      <is>
+        <t>M_niaoa</t>
+      </is>
+    </oc>
+    <nc r="I13"/>
+  </rcc>
+  <rcc rId="113" sId="2">
+    <oc r="J13" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J13"/>
+  </rcc>
+  <rcc rId="114" sId="2">
+    <oc r="K13">
+      <f>J13&amp;I13</f>
+    </oc>
+    <nc r="K13"/>
+  </rcc>
+  <rcc rId="115" sId="2">
+    <oc r="I14" t="inlineStr">
+      <is>
+        <t>M_niaob</t>
+      </is>
+    </oc>
+    <nc r="I14"/>
+  </rcc>
+  <rcc rId="116" sId="2">
+    <oc r="J14" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J14"/>
+  </rcc>
+  <rcc rId="117" sId="2">
+    <oc r="K14">
+      <f>J14&amp;I14</f>
+    </oc>
+    <nc r="K14"/>
+  </rcc>
+  <rcc rId="118" sId="2">
+    <oc r="I15" t="inlineStr">
+      <is>
+        <t>M_wushi</t>
+      </is>
+    </oc>
+    <nc r="I15"/>
+  </rcc>
+  <rcc rId="119" sId="2">
+    <oc r="J15" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J15"/>
+  </rcc>
+  <rcc rId="120" sId="2">
+    <oc r="K15">
+      <f>J15&amp;I15</f>
+    </oc>
+    <nc r="K15"/>
+  </rcc>
+  <rcc rId="121" sId="2">
+    <oc r="I16" t="inlineStr">
+      <is>
+        <t>M_yeren</t>
+      </is>
+    </oc>
+    <nc r="I16"/>
+  </rcc>
+  <rcc rId="122" sId="2">
+    <oc r="J16" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J16"/>
+  </rcc>
+  <rcc rId="123" sId="2">
+    <oc r="K16">
+      <f>J16&amp;I16</f>
+    </oc>
+    <nc r="K16"/>
+  </rcc>
+  <rcc rId="124" sId="2">
+    <oc r="I17" t="inlineStr">
+      <is>
+        <t>M_youlina</t>
+      </is>
+    </oc>
+    <nc r="I17"/>
+  </rcc>
+  <rcc rId="125" sId="2">
+    <oc r="J17" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J17"/>
+  </rcc>
+  <rcc rId="126" sId="2">
+    <oc r="K17">
+      <f>J17&amp;I17</f>
+    </oc>
+    <nc r="K17"/>
+  </rcc>
+  <rcc rId="127" sId="2">
+    <oc r="I18" t="inlineStr">
+      <is>
+        <t>M_youlinb</t>
+      </is>
+    </oc>
+    <nc r="I18"/>
+  </rcc>
+  <rcc rId="128" sId="2">
+    <oc r="J18" t="inlineStr">
+      <is>
+        <t>Monster/</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="J18"/>
+  </rcc>
+  <rcc rId="129" sId="2">
+    <oc r="K18">
+      <f>J18&amp;I18</f>
+    </oc>
+    <nc r="K18"/>
+  </rcc>
+  <rrc rId="130" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="131" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="132" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="133" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="134" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="135" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="136" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="137" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="138" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="139" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="140" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="141" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="142" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="143" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="144" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="145" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="146" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="147" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="148" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="149" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="150" sId="2" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="2" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="151" sId="1">
+    <oc r="H4" t="inlineStr">
+      <is>
+        <t>Monster/M_boosa</t>
+      </is>
+    </oc>
+    <nc r="H4" t="inlineStr">
+      <is>
+        <t>Monster/M_bossa</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="152" sId="1">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>int,int,vector3</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>int,vector3</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="153" sId="1">
+    <oc r="D4" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="154" sId="1">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="155" sId="1">
+    <oc r="D6" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="156" sId="1">
+    <oc r="D7" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="157" sId="1">
+    <oc r="D8" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="158" sId="1">
+    <oc r="D9" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="159" sId="1">
+    <oc r="D10" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="160" sId="1">
+    <oc r="D11" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="161" sId="1">
+    <oc r="D12" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="162" sId="1">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="163" sId="1">
+    <oc r="D14" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="164" sId="1">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="165" sId="1">
+    <oc r="D16" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="166" sId="1">
+    <oc r="D17" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="167" sId="1">
+    <oc r="D18" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="168" sId="1">
+    <oc r="D19" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="1">
+    <oc r="D20" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="170" sId="1">
+    <oc r="D21" t="inlineStr">
+      <is>
+        <t>0,0,-10|-10|0</t>
+      </is>
+    </oc>
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>0,-10|-10|0</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="171" sId="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>M_boosa</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>M_bossa</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,548 +2169,612 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>13001</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
+      <c r="A3" s="4">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>13002</v>
+        <v>13001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>13003</v>
+        <v>13002</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>13004</v>
+        <v>13003</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>13005</v>
+        <v>13004</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>13006</v>
+        <v>13005</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>13007</v>
+        <v>13006</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>13008</v>
+        <v>13007</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>13009</v>
+        <v>13008</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>13010</v>
+        <v>13009</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>13011</v>
+        <v>13010</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13012</v>
+        <v>13011</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13013</v>
+        <v>13012</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>13014</v>
+        <v>13013</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>13015</v>
+        <v>13014</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>13016</v>
+        <v>13015</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>13017</v>
+        <v>13016</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>13018</v>
+        <v>13017</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H20" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>13018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <customSheetViews>
+    <customSheetView guid="{9B477154-6ECB-49F2-BE29-0AD8E70ED32F}">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{9B477154-6ECB-49F2-BE29-0AD8E70ED32F}">
+      <selection activeCell="K1" sqref="K1:K18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>